--- a/public/excel/DB.xlsx
+++ b/public/excel/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpro/Documents/Programming/nuramotor/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C34BEC2-442B-5C4E-8F35-C942F59FE4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D17E898-8300-1D4C-A477-86ED14A29D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{02295F79-E7DE-F947-BC98-AFCC3533C3E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>NURAMOTOR</t>
   </si>
@@ -119,7 +119,7 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>colors</t>
+    <t>color</t>
   </si>
 </sst>
 </file>
@@ -258,13 +258,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,10 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +592,7 @@
   <dimension ref="B2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,254 +603,192 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/excel/DB.xlsx
+++ b/public/excel/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpro/Documents/Programming/nuramotor/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D17E898-8300-1D4C-A477-86ED14A29D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22536EC-F36D-EA49-9DDD-CA84712B4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{02295F79-E7DE-F947-BC98-AFCC3533C3E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>NURAMOTOR</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>change_received</t>
-  </si>
-  <si>
-    <t>type_id</t>
   </si>
   <si>
     <t>transaction_type</t>
@@ -143,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -254,11 +251,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -275,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -658,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -668,7 +675,9 @@
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -688,8 +697,8 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
+      <c r="F11" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -698,9 +707,7 @@
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="F12" s="10"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -742,7 +749,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>12</v>
@@ -763,7 +770,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>21</v>
@@ -772,16 +779,16 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>

--- a/public/excel/DB.xlsx
+++ b/public/excel/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macpro/Documents/Programming/nuramotor/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22536EC-F36D-EA49-9DDD-CA84712B4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8630031D-0C84-A644-BBD5-3731D9468955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{02295F79-E7DE-F947-BC98-AFCC3533C3E5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>NURAMOTOR</t>
   </si>
@@ -77,9 +77,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>transaction_details</t>
-  </si>
-  <si>
     <t>transaction_id</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
     <t>change_received</t>
   </si>
   <si>
+    <t>type_id</t>
+  </si>
+  <si>
     <t>transaction_type</t>
   </si>
   <si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>Catatan : kenapa ada qty dan price di table orders atau transaction_details</t>
+  </si>
+  <si>
+    <t>Ditakutkan harga dapat berubah ubah, sehingga tidak mempengaruhi history transaksi</t>
   </si>
 </sst>
 </file>
@@ -264,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -281,7 +290,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8E9F03-0491-FA46-9466-CC7D19132FA6}">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +621,7 @@
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -620,25 +632,37 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
@@ -646,21 +670,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
@@ -668,10 +698,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
@@ -679,71 +712,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="F12" s="11"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="D13" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="D14" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D14" s="10"/>
       <c r="F14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="F15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="F16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -751,11 +780,9 @@
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D17" s="10"/>
       <c r="F17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -763,8 +790,9 @@
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D18" s="13"/>
       <c r="F18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -773,7 +801,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -802,5 +830,6 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>